--- a/data/outputs/management_elsevier/39.xlsx
+++ b/data/outputs/management_elsevier/39.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS105"/>
+  <dimension ref="A1:BU105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84940476505</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>6356</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1140,6 +1156,12 @@
           <t>2-s2.0-84940491811</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>5594</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1353,6 +1375,12 @@
           <t>2-s2.0-84940510814</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>4113</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1558,6 +1586,12 @@
           <t>2-s2.0-84940500285</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>18991</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1771,6 +1805,12 @@
           <t>2-s2.0-84940488270</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>5351</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1976,6 +2016,12 @@
           <t>2-s2.0-84940571520</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1371</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2181,6 +2227,12 @@
           <t>2-s2.0-84940562735</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2376</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2394,6 +2446,12 @@
           <t>2-s2.0-84940492053</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>4157</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2599,6 +2657,12 @@
           <t>2-s2.0-84940524689</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1599</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2806,6 +2870,12 @@
           <t>2-s2.0-84940515603</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>7099</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3017,6 +3087,12 @@
           <t>2-s2.0-84940510725</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1840</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3222,6 +3298,12 @@
           <t>2-s2.0-84940481792</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>5263</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3437,6 +3519,12 @@
           <t>2-s2.0-84940529576</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3352</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3642,6 +3730,12 @@
           <t>2-s2.0-84940571049</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2678</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3847,6 +3941,12 @@
           <t>2-s2.0-84940510774</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1279</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4062,6 +4162,12 @@
           <t>2-s2.0-84940529224</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1280</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4267,6 +4373,12 @@
           <t>2-s2.0-84940474772</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1021</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4478,6 +4590,12 @@
           <t>2-s2.0-84940491676</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1197</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4683,6 +4801,12 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4888,6 +5012,12 @@
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5089,6 +5219,12 @@
           <t>2-s2.0-84951748077</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2370</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5294,6 +5430,12 @@
           <t>2-s2.0-84951811139</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1773</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5499,6 +5641,12 @@
           <t>2-s2.0-84951731084</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3669</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5704,6 +5852,12 @@
           <t>2-s2.0-84951830329</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1335</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5913,6 +6067,12 @@
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6114,6 +6274,12 @@
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6319,6 +6485,12 @@
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6528,6 +6700,12 @@
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6737,6 +6915,12 @@
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6942,6 +7126,12 @@
           <t>2-s2.0-84951741602</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2453</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7151,6 +7341,12 @@
           <t>2-s2.0-84951754512</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7356,6 +7552,12 @@
           <t>2-s2.0-84951847280</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>3265</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7567,6 +7769,12 @@
           <t>2-s2.0-84951828347</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2295</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7776,6 +7984,12 @@
           <t>2-s2.0-84951730399</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2593</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7981,6 +8195,12 @@
           <t>2-s2.0-84951789273</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1765</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8194,6 +8414,12 @@
           <t>2-s2.0-84930463711</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2238</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8395,6 +8621,12 @@
       <c r="BQ38" t="inlineStr"/>
       <c r="BR38" t="inlineStr"/>
       <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8604,6 +8836,12 @@
           <t>2-s2.0-84930437347</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2973</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8811,6 +9049,12 @@
           <t>2-s2.0-85027933433</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>25402</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9016,6 +9260,12 @@
           <t>2-s2.0-84930428574</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>3930</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9221,6 +9471,12 @@
           <t>2-s2.0-84930466359</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>2265</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9430,6 +9686,12 @@
           <t>2-s2.0-84930436102</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>8749</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9639,6 +9901,12 @@
           <t>2-s2.0-84930437689</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>9334</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9854,6 +10122,12 @@
           <t>2-s2.0-84930452103</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1417</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10067,6 +10341,12 @@
           <t>2-s2.0-84930419093</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>5454</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10272,6 +10552,12 @@
           <t>2-s2.0-84930427618</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2845</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10485,6 +10771,12 @@
           <t>2-s2.0-84930434120</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2393</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10690,6 +10982,12 @@
           <t>2-s2.0-84927733985</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>7816</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10895,6 +11193,12 @@
           <t>2-s2.0-84927770520</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1867</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11096,6 +11400,12 @@
           <t>2-s2.0-84927740660</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1072</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11305,6 +11615,12 @@
           <t>2-s2.0-84927725008</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1263</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11518,6 +11834,12 @@
           <t>2-s2.0-84927755923</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>997</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11723,6 +12045,12 @@
           <t>2-s2.0-84927713268</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>3878</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11932,6 +12260,12 @@
           <t>2-s2.0-84927765355</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2131</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12137,6 +12471,12 @@
           <t>2-s2.0-84927750315</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>8511</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12346,6 +12686,12 @@
           <t>2-s2.0-84927699538</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1276</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12561,6 +12907,12 @@
           <t>2-s2.0-84927758594</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>3287</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12776,6 +13128,12 @@
           <t>2-s2.0-84927796660</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2456</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12977,6 +13335,12 @@
           <t>2-s2.0-84927760294</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>4323</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13190,6 +13554,12 @@
           <t>2-s2.0-84927742029</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3964</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13403,6 +13773,12 @@
           <t>2-s2.0-84927770267</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>4006</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13612,6 +13988,12 @@
           <t>2-s2.0-84927759095</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1637</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13827,6 +14209,12 @@
           <t>2-s2.0-84922031872</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>3005</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14032,6 +14420,12 @@
           <t>2-s2.0-84922021734</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>529</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14237,6 +14631,12 @@
           <t>2-s2.0-84922058714</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>1366</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14446,6 +14846,12 @@
           <t>2-s2.0-84922042306</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>2203</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14651,6 +15057,12 @@
           <t>2-s2.0-84922031839</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2335</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14864,6 +15276,12 @@
           <t>2-s2.0-84922032666</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>2658</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15069,6 +15487,12 @@
           <t>2-s2.0-84922022650</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>2498</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15275,6 +15699,12 @@
         <is>
           <t>2-s2.0-84922060971</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>6521</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -15477,6 +15907,12 @@
           <t>2-s2.0-84922059218</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1952</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15686,6 +16122,12 @@
           <t>2-s2.0-84922053610</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>3925</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15891,6 +16333,12 @@
           <t>2-s2.0-84922009269</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>3107</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16104,6 +16552,12 @@
           <t>2-s2.0-84922070103</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>7105</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16313,6 +16767,12 @@
           <t>2-s2.0-84922017498</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>5322</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16522,6 +16982,12 @@
           <t>2-s2.0-84922059027</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1603</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16729,6 +17195,12 @@
           <t>2-s2.0-84919420010</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>8193</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16934,6 +17406,12 @@
           <t>2-s2.0-84919430021</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>902</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17139,6 +17617,12 @@
           <t>2-s2.0-84919432702</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17354,6 +17838,12 @@
           <t>2-s2.0-84919459436</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>5313</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17561,6 +18051,12 @@
           <t>2-s2.0-84919430930</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>10707</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17772,6 +18268,12 @@
           <t>2-s2.0-84919459347</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>2622</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17977,6 +18479,12 @@
           <t>2-s2.0-84919444396</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>8010</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18182,6 +18690,12 @@
           <t>2-s2.0-84919424558</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1782</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18383,6 +18897,12 @@
           <t>2-s2.0-84919444309</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>3964</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18598,6 +19118,12 @@
           <t>2-s2.0-84919420578</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>6225</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18807,6 +19333,12 @@
           <t>2-s2.0-84919464865</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2042</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19012,6 +19544,12 @@
           <t>2-s2.0-85027945605</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>4249</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19227,6 +19765,12 @@
           <t>2-s2.0-84919471935</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>4148</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19432,6 +19976,12 @@
           <t>2-s2.0-84919464820</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>8624</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19636,6 +20186,12 @@
         <is>
           <t>2-s2.0-84919449341</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>4932</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -19830,6 +20386,12 @@
           <t>2-s2.0-84919492628</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1137</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20045,6 +20607,12 @@
           <t>2-s2.0-85027920228</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>4565</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20258,6 +20826,12 @@
           <t>2-s2.0-85027928043</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>3598</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20463,6 +21037,12 @@
           <t>2-s2.0-85028164414</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>6868</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20668,6 +21248,12 @@
           <t>2-s2.0-84919458969</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>12801</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20879,6 +21465,12 @@
           <t>2-s2.0-84919460679</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>2738</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21084,6 +21676,12 @@
           <t>2-s2.0-84919458970</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>7163</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21293,6 +21891,12 @@
           <t>2-s2.0-84919430929</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>7993</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21502,6 +22106,12 @@
           <t>2-s2.0-84919426181</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>4126</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21711,6 +22321,12 @@
           <t>2-s2.0-84919438676</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>1285</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21916,6 +22532,12 @@
           <t>2-s2.0-84919444288</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>2079</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22123,6 +22745,12 @@
           <t>2-s2.0-85027933433</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>25402</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22336,6 +22964,12 @@
           <t>2-s2.0-85028140454</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>5730</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
